--- a/fuentes/contenidos/grado06/guion02/SolicitudGrafica_CN_06_02_CO_REC60.xlsx
+++ b/fuentes/contenidos/grado06/guion02/SolicitudGrafica_CN_06_02_CO_REC60.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_06_02_CO\Recursos realizados por Diego Molina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="201">
   <si>
     <t>Fecha:</t>
   </si>
@@ -596,18 +596,12 @@
     <t>Diego Molina</t>
   </si>
   <si>
-    <t>https://commons.wikimedia.org/wiki/File:Animal_mitochondrion_diagram_pt.svg?uselang=es#/media/File:Animal_mitochondrion_diagram_es.svg</t>
-  </si>
-  <si>
     <t>Fotografía</t>
   </si>
   <si>
     <t>Mitocondria</t>
   </si>
   <si>
-    <t>Confirmar que sea la imagen en la versión de idioma Español</t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
@@ -633,6 +627,9 @@
   </si>
   <si>
     <t>CN_06_02_REC60</t>
+  </si>
+  <si>
+    <t>Eliminar el título "Mitochondrion" y cambiar nombre al español así:</t>
   </si>
 </sst>
 </file>
@@ -1795,6 +1792,66 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>148594</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1661552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17207869" y="2140044"/>
+          <a:ext cx="1889756" cy="1655108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2508,9 +2565,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2708,7 +2765,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2798,20 +2855,20 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>189</v>
+      <c r="B10" s="62">
+        <v>253622641</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M5A</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>155</v>
@@ -2833,10 +2890,10 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
@@ -2856,7 +2913,7 @@
         <v>Recurso M5A</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>155</v>
@@ -2878,10 +2935,10 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K11" s="65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
@@ -2901,7 +2958,7 @@
         <v>Recurso M5A</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>155</v>
@@ -2923,10 +2980,10 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K12" s="64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
@@ -2946,7 +3003,7 @@
         <v>Recurso M5A</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>155</v>
@@ -2968,7 +3025,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -2989,7 +3046,7 @@
         <v>Recurso M5A</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>155</v>
@@ -3011,7 +3068,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -3032,7 +3089,7 @@
         <v>Recurso M5A</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>155</v>
@@ -3054,7 +3111,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
@@ -6027,6 +6084,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
